--- a/文档/目标.xlsx
+++ b/文档/目标.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\04_ps\沙雕动画\_素材库\WindowSWF-master\WindowSWF-master\AnJsflScript\文档\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCC229F0-02F2-4980-BFC1-AEB9D599FA88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF5D9301-8556-4B6A-8EAA-64B5E119F879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="25720" windowHeight="13800" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,12 +157,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -177,8 +183,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -462,7 +469,7 @@
   <dimension ref="C2:E8"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -483,7 +490,7 @@
       </c>
     </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D3" t="s">
@@ -560,7 +567,7 @@
   <dimension ref="C4:E9"/>
   <sheetViews>
     <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:E4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -614,7 +621,7 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
@@ -625,7 +632,7 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D9" t="s">
@@ -647,7 +654,7 @@
   <dimension ref="C5:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C7"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -668,7 +675,7 @@
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D6" t="s">
@@ -712,7 +719,7 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
